--- a/Analysis/db_pledges_all.xlsx
+++ b/Analysis/db_pledges_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Global_Shocks\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/Polycrisis-shocks/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DBBA5C-E7BA-4948-A17B-603231452AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{79DBBA5C-E7BA-4948-A17B-603231452AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971F88CC-0A93-4032-8C1A-F61807A0CF82}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -861,18 +861,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -889,7 +883,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,12 +1183,12 @@
   <dimension ref="A1:E267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F221" sqref="F221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1205,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +1224,7 @@
         <v>53962640.717142858</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1243,7 @@
         <v>51248488.178190485</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>49114574.399999917</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1281,7 @@
         <v>2854126.557142857</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1300,7 @@
         <v>28998241.49047618</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1319,7 @@
         <v>11295192.638095222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1338,7 @@
         <v>212745513.22285777</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1357,7 @@
         <v>9290231.1419047639</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1376,7 @@
         <v>18012303.348571461</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1395,7 @@
         <v>837680.76857142802</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1420,7 +1414,7 @@
         <v>14299064.966666689</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1433,7 @@
         <v>229611112.02285698</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1452,7 @@
         <v>29588403.290476162</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1471,7 @@
         <v>18510318.755238105</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1496,7 +1490,7 @@
         <v>18921430.083809439</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1515,7 +1509,7 @@
         <v>36831861.359999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1534,7 +1528,7 @@
         <v>653733.16666666802</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1553,7 +1547,7 @@
         <v>7792382.1685714321</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1572,7 +1566,7 @@
         <v>25036471.428571396</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>20509921.10000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1610,7 +1604,7 @@
         <v>1428070947.5391812</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +1623,7 @@
         <v>56236864.380428545</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1648,7 +1642,7 @@
         <v>5490081.7999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>37310464.628571332</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +1680,7 @@
         <v>145725567.77999994</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1705,7 +1699,7 @@
         <v>1290054.7809523803</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +1718,7 @@
         <v>12270386.062380934</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1743,7 +1737,7 @@
         <v>20589831.601904765</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1762,7 +1756,7 @@
         <v>131452425.27619022</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1781,7 +1775,7 @@
         <v>6682140.6895238068</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1800,7 +1794,7 @@
         <v>4572900.6526970016</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1819,7 +1813,7 @@
         <v>1378960.1866666672</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1838,7 +1832,7 @@
         <v>160225683.05761603</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1857,7 +1851,7 @@
         <v>3037595.6371428533</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>3887683.209523811</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1895,7 +1889,7 @@
         <v>3626344.9619047646</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1914,7 +1908,7 @@
         <v>42807672.86428576</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1933,7 +1927,7 @@
         <v>131332.01047619045</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1952,7 +1946,7 @@
         <v>21083909.213809531</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1971,7 +1965,7 @@
         <v>17709764.104761913</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1990,7 +1984,7 @@
         <v>3383662.2442857153</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2009,7 +2003,7 @@
         <v>932171.33999999904</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>13166868.892857146</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2047,7 +2041,7 @@
         <v>12194028.49</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2066,7 +2060,7 @@
         <v>9727278.820000032</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2085,7 +2079,7 @@
         <v>1704376686.3657157</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2104,7 +2098,7 @@
         <v>302721020.68174183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>100931664.37619045</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2142,7 +2136,7 @@
         <v>56273914.049714223</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>58042610.731238246</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2180,7 +2174,7 @@
         <v>12557111.289047662</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2199,7 +2193,7 @@
         <v>21977097.042857133</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2218,7 +2212,7 @@
         <v>67935459.080000252</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2237,7 +2231,7 @@
         <v>8066858.9714285815</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2256,7 +2250,7 @@
         <v>8775808</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2275,7 +2269,7 @@
         <v>4911372.6095238142</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2288,7 @@
         <v>2564893.7600000012</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2313,7 +2307,7 @@
         <v>7726680.8933333354</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2332,7 +2326,7 @@
         <v>38373547.669285722</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2351,7 +2345,7 @@
         <v>33694075.84761899</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2370,7 +2364,7 @@
         <v>32035525.060000055</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2389,7 +2383,7 @@
         <v>6298067.8095238088</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>1302742.6399999992</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2427,7 +2421,7 @@
         <v>137726727.70833334</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2446,7 +2440,7 @@
         <v>3255702.671428571</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2465,7 +2459,7 @@
         <v>3867983.7655746657</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2484,7 +2478,7 @@
         <v>41018551.971428558</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2503,7 +2497,7 @@
         <v>44992494.248571433</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2522,7 +2516,7 @@
         <v>59619016.592857175</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2541,7 +2535,7 @@
         <v>3044456.2371428562</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2560,7 +2554,7 @@
         <v>34696696.791428611</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2579,7 +2573,7 @@
         <v>5661416.3471428491</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2598,7 +2592,7 @@
         <v>8573578.1828571465</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2617,7 +2611,7 @@
         <v>39796952.666666731</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2636,7 +2630,7 @@
         <v>284295672.14190501</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2655,7 +2649,7 @@
         <v>6654255.1599999992</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2674,7 +2668,7 @@
         <v>298091380.72380948</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2693,7 +2687,7 @@
         <v>5080861.2399999993</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2712,7 +2706,7 @@
         <v>12398646.080000011</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2731,7 +2725,7 @@
         <v>37728122.707619108</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2750,7 +2744,7 @@
         <v>134784685.71428579</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2769,7 +2763,7 @@
         <v>7622707.7142856987</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2788,7 +2782,7 @@
         <v>52041824.03714285</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2807,7 +2801,7 @@
         <v>18564251.382857148</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2826,7 +2820,7 @@
         <v>185835.08</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2845,7 +2839,7 @@
         <v>280919.26857142849</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>23311465.134285733</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2883,7 +2877,7 @@
         <v>6482037.5557142869</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2902,7 +2896,7 @@
         <v>112236.93333333317</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2921,7 +2915,7 @@
         <v>10668780.800000025</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2940,7 +2934,7 @@
         <v>6369400.6826666659</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2959,7 +2953,7 @@
         <v>24827231.370476212</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2978,7 +2972,7 @@
         <v>66404006.455714345</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2997,7 +2991,7 @@
         <v>13701505.607190462</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -3016,7 +3010,7 @@
         <v>23522940.848571435</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -3035,7 +3029,7 @@
         <v>61399421.428571396</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -3054,7 +3048,7 @@
         <v>14454518.555611445</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3073,7 +3067,7 @@
         <v>12235005.002857137</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3092,7 +3086,7 @@
         <v>95208927.814285308</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -3111,7 +3105,7 @@
         <v>71892143.657142788</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -3130,7 +3124,7 @@
         <v>1545234.4604761892</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -3149,7 +3143,7 @@
         <v>11792632.79999998</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3168,7 +3162,7 @@
         <v>13982874.113333339</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -3187,7 +3181,7 @@
         <v>91972151.511904836</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3206,7 +3200,7 @@
         <v>75672979.540476307</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3225,7 +3219,7 @@
         <v>38740408.735714272</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3244,7 +3238,7 @@
         <v>70062201.198571399</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3263,7 +3257,7 @@
         <v>382880666.27571434</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3282,7 +3276,7 @@
         <v>3439814.4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3301,7 +3295,7 @@
         <v>40110589.815999992</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3320,7 +3314,7 @@
         <v>33660985.919047631</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -3339,7 +3333,7 @@
         <v>109355674.49333344</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3358,7 +3352,7 @@
         <v>26933689.908571415</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3377,7 +3371,7 @@
         <v>20518230.763809521</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3396,7 +3390,7 @@
         <v>103470.01714285721</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3415,7 +3409,7 @@
         <v>49001662.233333282</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3434,7 +3428,7 @@
         <v>2879511.0119047686</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -3453,7 +3447,7 @@
         <v>81619.528571428367</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3472,7 +3466,7 @@
         <v>14165406.268247614</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -3491,7 +3485,7 @@
         <v>39862.666666666599</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3510,7 +3504,7 @@
         <v>97984.647619047639</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3529,7 +3523,7 @@
         <v>9187610.3744761702</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3548,7 +3542,7 @@
         <v>12018947.179523809</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3567,7 +3561,7 @@
         <v>6257905.1428571418</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3586,7 +3580,7 @@
         <v>1611551.9190476183</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3605,7 +3599,7 @@
         <v>602106.46857142891</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3624,7 +3618,7 @@
         <v>3058139.2714285692</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3643,7 +3637,7 @@
         <v>468040.0014285724</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3662,7 +3656,7 @@
         <v>4920615.291428565</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3681,7 +3675,7 @@
         <v>281249.77238095232</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3700,7 +3694,7 @@
         <v>523725.58999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3719,7 +3713,7 @@
         <v>3164860.5128571419</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3738,7 +3732,7 @@
         <v>46085740.50000003</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3757,7 +3751,7 @@
         <v>9650730.1049652342</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -3776,7 +3770,7 @@
         <v>1003334.4000952379</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3795,7 +3789,7 @@
         <v>11519656.996190498</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3811,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3830,7 +3824,7 @@
         <v>80907.13714285726</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3849,7 +3843,7 @@
         <v>1325550.9880952425</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>10735805.452566205</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -3882,12 +3876,12 @@
       <c r="D142" s="1">
         <v>235.32276190476199</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="1">
         <f t="shared" si="5"/>
         <v>84149066.429523841</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3906,7 +3900,7 @@
         <v>75015.214285714508</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3925,7 +3919,7 @@
         <v>6607875.3161904598</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -3944,7 +3938,7 @@
         <v>47331411.23587735</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -3963,7 +3957,7 @@
         <v>1347848.0885714274</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -3982,7 +3976,7 @@
         <v>6181762.3771428736</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -4001,7 +3995,7 @@
         <v>1004283.63</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -4020,7 +4014,7 @@
         <v>65864669.611097492</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -4039,7 +4033,7 @@
         <v>525792.94284142868</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -4058,7 +4052,7 @@
         <v>124971.1666666666</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -4077,7 +4071,7 @@
         <v>2121962.4642857136</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>10168001.853333337</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -4115,7 +4109,7 @@
         <v>56642.100000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -4134,7 +4128,7 @@
         <v>183398.55428571408</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -4153,7 +4147,7 @@
         <v>7840544.6228571385</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -4172,7 +4166,7 @@
         <v>5938534.9371428583</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -4188,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -4207,7 +4201,7 @@
         <v>5450726.0399999991</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -4226,7 +4220,7 @@
         <v>402077.66666666704</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -4245,7 +4239,7 @@
         <v>10770389.107619049</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -4264,7 +4258,7 @@
         <v>2806163.573333336</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -4283,7 +4277,7 @@
         <v>120559756.95952371</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -4302,7 +4296,7 @@
         <v>154516.52571428582</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -4321,7 +4315,7 @@
         <v>48133.156190476242</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -4340,7 +4334,7 @@
         <v>4673706.5571428528</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -4359,7 +4353,7 @@
         <v>7587304.0552380979</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -4378,7 +4372,7 @@
         <v>41281.5847619048</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -4397,7 +4391,7 @@
         <v>2608581.1147619043</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -4416,7 +4410,7 @@
         <v>714610.2300000008</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -4435,7 +4429,7 @@
         <v>1723295.0328571424</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -4454,7 +4448,7 @@
         <v>33841.66666666665</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -4473,7 +4467,7 @@
         <v>1336734.263302854</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -4492,7 +4486,7 @@
         <v>525881.01428571297</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -4511,7 +4505,7 @@
         <v>45846.454285714317</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -4530,7 +4524,7 @@
         <v>2089203.1699999992</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -4549,7 +4543,7 @@
         <v>540044.78476190404</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -4568,7 +4562,7 @@
         <v>633153.64619047637</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -4587,7 +4581,7 @@
         <v>51212.106666666819</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -4606,7 +4600,7 @@
         <v>37584602.403904743</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -4625,7 +4619,7 @@
         <v>324356.36857142829</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -4644,7 +4638,7 @@
         <v>22159469.481904749</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -4663,7 +4657,7 @@
         <v>10022941.307571411</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -4682,7 +4676,7 @@
         <v>5267984.7619047686</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -4701,7 +4695,7 @@
         <v>17747.39142857142</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -4720,7 +4714,7 @@
         <v>39110833.282380939</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -4739,7 +4733,7 @@
         <v>3158464.6576190442</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -4758,7 +4752,7 @@
         <v>26494382.040000051</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -4777,7 +4771,7 @@
         <v>10024465.5242857</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -4796,7 +4790,7 @@
         <v>7790056.1965714116</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -4815,7 +4809,7 @@
         <v>329038.56885714288</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -4834,7 +4828,7 @@
         <v>2928146.07</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -4853,7 +4847,7 @@
         <v>19512245.333333343</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -4872,7 +4866,7 @@
         <v>146289370.19047612</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -4891,7 +4885,7 @@
         <v>41730191.744761951</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -4910,7 +4904,7 @@
         <v>940957.8523809514</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -4929,7 +4923,7 @@
         <v>704207.57333333394</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -4948,7 +4942,7 @@
         <v>5626465.6671428364</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -4967,7 +4961,7 @@
         <v>2127284.9066666598</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -4986,7 +4980,7 @@
         <v>44489.42580952368</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -5005,7 +4999,7 @@
         <v>31279829.607619137</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -5024,7 +5018,7 @@
         <v>49316.942857142829</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -5043,7 +5037,7 @@
         <v>7505606.6714285826</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -5062,7 +5056,7 @@
         <v>121854.92857142851</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -5081,7 +5075,7 @@
         <v>1540242.681428571</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -5100,7 +5094,7 @@
         <v>12113.855714285699</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -5119,7 +5113,7 @@
         <v>104136.59285714294</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -5138,7 +5132,7 @@
         <v>33394.900000000052</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -5157,7 +5151,7 @@
         <v>91054.700000000099</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -5176,7 +5170,7 @@
         <v>419169.98380952445</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -5195,7 +5189,7 @@
         <v>264974.29904761899</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -5214,7 +5208,7 @@
         <v>42285846.401428543</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -5227,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -5240,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -5253,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -5266,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -5279,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -5292,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -5305,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -5318,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -5331,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -5344,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -5357,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -5370,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -5383,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -5396,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -5412,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -5438,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -5451,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -5464,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -5477,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -5490,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -5503,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -5516,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -5529,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -5542,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -5555,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -5568,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -5581,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -5594,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -5607,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -5623,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -5636,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -5649,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -5662,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -5675,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -5691,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -5704,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -5717,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -5730,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -5743,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -5756,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -5769,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -5785,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -5798,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -5811,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -5824,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -5837,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -5850,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -5863,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -5876,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -5889,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -5902,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -5915,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -5928,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>268</v>
       </c>
